--- a/wolf/Excel/Exchange_兑换表.xlsx
+++ b/wolf/Excel/Exchange_兑换表.xlsx
@@ -43,49 +43,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -183,20 +183,20 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -529,219 +529,236 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="str">
+    <row customHeight="true" ht="21" r="1">
+      <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>String</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
+    <row customHeight="true" ht="21" r="2">
+      <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>NameMark</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Name</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>IconGUID</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>GetType</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>GetNum</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>ConsumeNum</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>ShopItem</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>SkillShopItem</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <v>Comment</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
+    <row customHeight="true" ht="21" r="3">
+      <c r="A3" s="1" t="str">
         <v>序号</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>名称标注</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>名称</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>图标GUID</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>获得物类型
 1：金币
 2：钻石</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>获得物数量</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>广告券消耗数量</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>引用商店物品表</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>引用能力商店表</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
+    <row customHeight="true" ht="21" r="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="5">
+      <c r="A5" s="1">
         <v>10001</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>一袋金币</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>一袋金币</v>
-      </c>
-      <c r="D5" s="5">
-        <v>163443</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="1" t="str">
+        <v>一小堆金币</v>
+      </c>
+      <c r="D5" s="2">
+        <v>157828</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="6">
+      <c r="A6" s="1">
         <v>10002</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>一箱金币</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <v>一箱金币</v>
-      </c>
-      <c r="D6" s="5">
-        <v>163408</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="1" t="str">
+        <v>一大堆金币</v>
+      </c>
+      <c r="D6" s="2">
+        <v>157790</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>5000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>45</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="7">
+      <c r="A7" s="1">
         <v>10003</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="4" t="str">
         <v>限定武器-樱</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="4" t="str">
         <v>限定武器-樱</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>192902</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
         <v>10034</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="8">
+      <c r="A8" s="1">
         <v>10004</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="4" t="str">
         <v>限定武器-蝶</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="4" t="str">
         <v>限定武器-蝶</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>192893</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
         <v>20011</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="9">
+      <c r="A9" s="1">
         <v>10005</v>
       </c>
       <c r="B9" s="6" t="str">
@@ -750,37 +767,37 @@
       <c r="C9" s="6" t="str">
         <v>快速投掷体验券</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>171561</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
         <v>10005</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
+      <c r="J9" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="10">
+      <c r="A10" s="1">
         <v>10006</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="2" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="2" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>171565</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>10006</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
+    <row customHeight="true" ht="21" r="11">
+      <c r="A11" s="1">
         <v>10007</v>
       </c>
       <c r="B11" s="7" t="str">
@@ -789,13 +806,22 @@
       <c r="C11" s="7" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>166661</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>10007</v>
       </c>
     </row>
+    <row customHeight="true" ht="21" r="12"/>
+    <row customHeight="true" ht="21" r="13"/>
+    <row customHeight="true" ht="21" r="14"/>
+    <row customHeight="true" ht="21" r="15"/>
+    <row customHeight="true" ht="21" r="16"/>
+    <row customHeight="true" ht="21" r="17"/>
+    <row customHeight="true" ht="21" r="18"/>
+    <row customHeight="true" ht="21" r="19"/>
+    <row customHeight="true" ht="21" r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wolf/Excel/Exchange_兑换表.xlsx
+++ b/wolf/Excel/Exchange_兑换表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -58,7 +58,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,7 +72,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,8 +91,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -117,8 +131,28 @@
         <bgColor/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -179,30 +213,36 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,169 +592,169 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>String</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>NameMark</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>Name</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>IconGUID</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>GetType</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>GetNum</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>ConsumeNum</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>ShopItem</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>SkillShopItem</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="J2" s="2" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>序号</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>名称标注</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>名称</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>图标GUID</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>获得物类型
 1：金币
 2：钻石</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>获得物数量</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>广告券消耗数量</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <v>引用商店物品表</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="2" t="str">
         <v>引用能力商店表</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="J3" s="2" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>10001</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>一袋金币</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>一小堆金币</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>157828</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>500</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10002</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>一箱金币</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>一大堆金币</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>157790</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>5000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>45</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>10003</v>
       </c>
       <c r="B7" s="4" t="str">
@@ -723,20 +763,20 @@
       <c r="C7" s="4" t="str">
         <v>限定武器-樱</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>192902</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>10034</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>10004</v>
       </c>
       <c r="B8" s="4" t="str">
@@ -745,20 +785,20 @@
       <c r="C8" s="4" t="str">
         <v>限定武器-蝶</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>192893</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>20011</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>10005</v>
       </c>
       <c r="B9" s="6" t="str">
@@ -767,37 +807,37 @@
       <c r="C9" s="6" t="str">
         <v>快速投掷体验券</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>171561</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
         <v>10005</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>10006</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="3" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="3" t="str">
         <v>爆炸飞刀体验券</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>171565</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>10006</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10007</v>
       </c>
       <c r="B11" s="7" t="str">
@@ -806,15 +846,41 @@
       <c r="C11" s="7" t="str">
         <v>幽灵斗篷体验券</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>166661</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>10007</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="12"/>
-    <row customHeight="true" ht="21" r="13"/>
+    <row customHeight="true" ht="21" r="12">
+      <c r="A12" s="2">
+        <v>10008</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v>紫光剑</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>紫光剑</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10036</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="13">
+      <c r="A13" s="2">
+        <v>10009</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <v>冰寒弓箭</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <v>冰寒弓箭</v>
+      </c>
+      <c r="H13" s="8">
+        <v>20013</v>
+      </c>
+    </row>
     <row customHeight="true" ht="21" r="14"/>
     <row customHeight="true" ht="21" r="15"/>
     <row customHeight="true" ht="21" r="16"/>

--- a/wolf/Excel/Exchange_兑换表.xlsx
+++ b/wolf/Excel/Exchange_兑换表.xlsx
@@ -50,14 +50,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -73,6 +66,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,31 +218,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,325 +569,630 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="2" t="str">
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
+        <v>String</v>
+      </c>
+      <c r="E1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="I1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="I1" s="2" t="str">
-        <v>Int</v>
-      </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="1" t="str">
         <v>String</v>
       </c>
-    </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="2">
+      <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>NameMark</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Name</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>IconGUID</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>GetType</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>GetNum</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>ConsumeNum</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>ShopItem</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>SkillShopItem</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <v>Comment</v>
       </c>
-    </row>
-    <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="3">
+      <c r="A3" s="1" t="str">
         <v>序号</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>名称标注</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>名称</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>图标GUID</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>获得物类型
 1：金币
 2：钻石</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>获得物数量</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>广告券消耗数量</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>引用商店物品表</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="1" t="str">
         <v>引用能力商店表</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <v>备注</v>
       </c>
-    </row>
-    <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="str">
+        <v>Language</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="1">
         <v>10001</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <v>一袋金币</v>
-      </c>
-      <c r="C5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>一小堆金币</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C5" s="5" t="str">
+        <v>Text_ASmallPileOfGoldCoins</v>
+      </c>
+      <c r="D5" s="1">
         <v>157828</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="2">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="1">
         <v>10002</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>一箱金币</v>
-      </c>
-      <c r="C6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>一大堆金币</v>
       </c>
-      <c r="D6" s="3">
+      <c r="C6" s="5" t="str">
+        <v>Text_APileOfGoldCoins</v>
+      </c>
+      <c r="D6" s="1">
         <v>157790</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>5000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>45</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="2">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="1">
         <v>10003</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="3" t="str">
         <v>限定武器-樱</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <v>限定武器-樱</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5" t="str">
+        <v>Text_LimitedWeaponSakura</v>
+      </c>
+      <c r="D7" s="4">
         <v>192902</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
         <v>10034</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="2">
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="1">
         <v>10004</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="3" t="str">
         <v>限定武器-蝶</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <v>限定武器-蝶</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5" t="str">
+        <v>Text_LimitedWeaponButterfly</v>
+      </c>
+      <c r="D8" s="4">
         <v>192893</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
         <v>20011</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="1">
         <v>10005</v>
       </c>
-      <c r="B9" s="6" t="str">
-        <v>快速投掷体验券</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <v>快速投掷体验券</v>
-      </c>
-      <c r="D9" s="3">
-        <v>171561</v>
+      <c r="B9" s="3" t="str">
+        <v>限定武器-紫光剑</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v>Text_LimitedWeaponPurpleLightsaber</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <v>mode_304952</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="H9" s="6">
+        <v>10036</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <v>限定武器-冰寒弓箭</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <v>Text_LimitedWeaponIceBow</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v>mode_304643</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6">
+        <v>20013</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <v>快速投掷体验券</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <v>SkillShop_Name_10005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>171561</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <v>10005</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="2">
+      <c r="J11" s="6"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>爆炸飞刀体验券</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <v>SkillShop_Name_10006</v>
+      </c>
+      <c r="D12" s="1">
+        <v>171565</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1">
         <v>10006</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <v>爆炸飞刀体验券</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <v>爆炸飞刀体验券</v>
-      </c>
-      <c r="D10" s="3">
-        <v>171565</v>
-      </c>
-      <c r="I10" s="2">
-        <v>10006</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="2">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <v>幽灵斗篷体验券</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <v>SkillShop_Name_10007</v>
+      </c>
+      <c r="D13" s="1">
+        <v>166661</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1">
         <v>10007</v>
       </c>
-      <c r="B11" s="7" t="str">
-        <v>幽灵斗篷体验券</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <v>幽灵斗篷体验券</v>
-      </c>
-      <c r="D11" s="3">
-        <v>166661</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10007</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="2">
-        <v>10008</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <v>紫光剑</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>紫光剑</v>
-      </c>
-      <c r="H12" s="8">
-        <v>10036</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="2">
-        <v>10009</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <v>冰寒弓箭</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <v>冰寒弓箭</v>
-      </c>
-      <c r="H13" s="8">
-        <v>20013</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="14"/>
-    <row customHeight="true" ht="21" r="15"/>
-    <row customHeight="true" ht="21" r="16"/>
-    <row customHeight="true" ht="21" r="17"/>
-    <row customHeight="true" ht="21" r="18"/>
-    <row customHeight="true" ht="21" r="19"/>
-    <row customHeight="true" ht="21" r="20"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
